--- a/outputs-HGR-r202-archive/g__UBA733_train.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA733_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,7 +687,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_0.fasta</t>
+          <t>label_UMGS153_18.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_12.fasta</t>
+          <t>label_UMGS153_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -729,7 +729,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_21.fasta</t>
+          <t>label_UMGS153_6.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -750,7 +750,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_24.fasta</t>
+          <t>label_UMGS153_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,7 +771,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_5.fasta</t>
+          <t>label_UMGS153_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -792,7 +792,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_18.fasta</t>
+          <t>label_UMGS153_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -813,7 +813,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_2.fasta</t>
+          <t>label_UMGS153_3.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_6.fasta</t>
+          <t>label_UMGS153_7.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_1.fasta</t>
+          <t>label_UMGS153_8.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,7 +876,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_11.fasta</t>
+          <t>label_UMGS153_14.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -897,7 +897,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_13.fasta</t>
+          <t>label_UMGS153_16.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_3.fasta</t>
+          <t>label_UMGS153_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_7.fasta</t>
+          <t>label_UMGS153_20.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_8.fasta</t>
+          <t>label_UMGS153_22.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_14.fasta</t>
+          <t>label_UMGS153_23.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_16.fasta</t>
+          <t>label_UMGS153_10.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_19.fasta</t>
+          <t>label_UMGS153_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_20.fasta</t>
+          <t>label_UMGS153_17.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,49 +1065,49 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_22.fasta</t>
+          <t>label_UMGS153_25.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.2469136</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.7530864</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.7530864</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>s__UBA733 sp900539595</t>
+          <t>s__UBA733 sp900550795</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_23.fasta</t>
+          <t>label_UMGS153_26.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.2469136</v>
       </c>
       <c r="C28" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.7530864</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.7530864</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>s__UBA733 sp900539595</t>
+          <t>s__UBA733 sp900550795</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_10.fasta</t>
+          <t>label_UMGS153_4.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS153_15.fasta</t>
+          <t>label_UMGS153_9.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1141,111 +1141,6 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E30" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900539595</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS153_17.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900539595</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS153_25.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.2469136</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7530864</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.7530864</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS153_26.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.2469136</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.7530864</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.7530864</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS153_4.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900539595</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS153_9.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>s__UBA733 sp900539595</t>
         </is>
@@ -1262,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1468,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_17.fasta</t>
+          <t>label_UMGS1337_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1594,7 +1489,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_24.fasta</t>
+          <t>label_UMGS1337_12.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1615,7 +1510,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_30.fasta</t>
+          <t>label_UMGS1337_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1636,7 +1531,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_34.fasta</t>
+          <t>label_UMGS1337_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1657,7 +1552,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_35.fasta</t>
+          <t>label_UMGS1337_22.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1678,7 +1573,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_39.fasta</t>
+          <t>label_UMGS1337_27.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1699,7 +1594,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_43.fasta</t>
+          <t>label_UMGS1337_28.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1720,7 +1615,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_45.fasta</t>
+          <t>label_UMGS1337_29.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1741,7 +1636,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_52.fasta</t>
+          <t>label_UMGS1337_33.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1762,7 +1657,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_53.fasta</t>
+          <t>label_UMGS1337_37.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1783,17 +1678,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_54.fasta</t>
+          <t>label_UMGS1337_38.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.2962963</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.7037037</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.7037037</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1804,7 +1699,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_63.fasta</t>
+          <t>label_UMGS1337_48.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1825,7 +1720,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_67.fasta</t>
+          <t>label_UMGS1337_51.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1846,7 +1741,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_69.fasta</t>
+          <t>label_UMGS1337_56.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1867,7 +1762,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_70.fasta</t>
+          <t>label_UMGS1337_60.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1888,7 +1783,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_1.fasta</t>
+          <t>label_UMGS1337_64.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1909,7 +1804,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_12.fasta</t>
+          <t>label_UMGS1337_7.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1930,7 +1825,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_14.fasta</t>
+          <t>label_UMGS1337_10.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1951,7 +1846,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_19.fasta</t>
+          <t>label_UMGS1337_18.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1972,7 +1867,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_22.fasta</t>
+          <t>label_UMGS1337_2.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1993,7 +1888,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_27.fasta</t>
+          <t>label_UMGS1337_21.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2014,7 +1909,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_28.fasta</t>
+          <t>label_UMGS1337_3.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2035,7 +1930,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_29.fasta</t>
+          <t>label_UMGS1337_32.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2056,7 +1951,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_33.fasta</t>
+          <t>label_UMGS1337_41.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2077,7 +1972,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_37.fasta</t>
+          <t>label_UMGS1337_42.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2098,17 +1993,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_38.fasta</t>
+          <t>label_UMGS1337_46.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2962963</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7037037</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7037037</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2119,7 +2014,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_48.fasta</t>
+          <t>label_UMGS1337_5.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2140,7 +2035,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_51.fasta</t>
+          <t>label_UMGS1337_59.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2161,7 +2056,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_56.fasta</t>
+          <t>label_UMGS1337_62.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2182,7 +2077,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_60.fasta</t>
+          <t>label_UMGS1337_73.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2203,7 +2098,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_64.fasta</t>
+          <t>label_UMGS1337_9.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2224,7 +2119,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_7.fasta</t>
+          <t>label_UMGS1337_0.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2245,7 +2140,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_10.fasta</t>
+          <t>label_UMGS1337_11.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2266,7 +2161,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_18.fasta</t>
+          <t>label_UMGS1337_15.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2287,7 +2182,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_2.fasta</t>
+          <t>label_UMGS1337_16.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2308,7 +2203,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_21.fasta</t>
+          <t>label_UMGS1337_20.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2329,7 +2224,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_3.fasta</t>
+          <t>label_UMGS1337_25.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2350,7 +2245,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_32.fasta</t>
+          <t>label_UMGS1337_26.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2371,7 +2266,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_41.fasta</t>
+          <t>label_UMGS1337_4.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2392,7 +2287,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_42.fasta</t>
+          <t>label_UMGS1337_44.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2413,7 +2308,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_46.fasta</t>
+          <t>label_UMGS1337_47.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2434,7 +2329,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_5.fasta</t>
+          <t>label_UMGS1337_50.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2455,7 +2350,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_59.fasta</t>
+          <t>label_UMGS1337_57.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2476,7 +2371,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_62.fasta</t>
+          <t>label_UMGS1337_58.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2497,7 +2392,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_73.fasta</t>
+          <t>label_UMGS1337_6.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2518,7 +2413,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_9.fasta</t>
+          <t>label_UMGS1337_71.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2539,7 +2434,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_0.fasta</t>
+          <t>label_UMGS1337_13.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2560,7 +2455,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_11.fasta</t>
+          <t>label_UMGS1337_23.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2581,7 +2476,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_15.fasta</t>
+          <t>label_UMGS1337_31.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2602,7 +2497,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_16.fasta</t>
+          <t>label_UMGS1337_36.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2623,7 +2518,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_20.fasta</t>
+          <t>label_UMGS1337_40.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2644,7 +2539,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_25.fasta</t>
+          <t>label_UMGS1337_49.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2665,7 +2560,7 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_26.fasta</t>
+          <t>label_UMGS1337_55.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2686,7 +2581,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_4.fasta</t>
+          <t>label_UMGS1337_61.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2707,7 +2602,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_44.fasta</t>
+          <t>label_UMGS1337_65.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2728,7 +2623,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_47.fasta</t>
+          <t>label_UMGS1337_66.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2749,7 +2644,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_50.fasta</t>
+          <t>label_UMGS1337_68.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2770,7 +2665,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_57.fasta</t>
+          <t>label_UMGS1337_72.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2791,7 +2686,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1337_58.fasta</t>
+          <t>label_UMGS1337_8.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2804,321 +2699,6 @@
         <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_6.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_71.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_13.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_23.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_31.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_36.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_40.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_49.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_55.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_61.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_65.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_66.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_68.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_72.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>s__UBA733 sp900550795</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1337_8.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="inlineStr">
         <is>
           <t>s__UBA733 sp900550795</t>
         </is>
